--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Dynamic DC Load\VB ElectronicLoad_DC_10Amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A6F276-52C1-48E6-BA1C-89C2D659DBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E6FE5-3EAC-4B24-984C-11BCD5BCCAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="630" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="332">
   <si>
     <t>Reference</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>CC0805KRX7R9BB102</t>
-  </si>
-  <si>
-    <t>C4,C15,C17,C28</t>
   </si>
   <si>
     <t>1uF</t>
@@ -1019,6 +1016,12 @@
   </si>
   <si>
     <t>Capacitor_THT:C_Rect_L19.0mm_W8.0mm_P15.00mm_MKS4</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C4,C17,C28</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1463,238 +1466,241 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1703,1009 +1709,1012 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>323</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>322</v>
-      </c>
-      <c r="B19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>317</v>
+      </c>
+      <c r="H20" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>97</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D33">
         <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
         <v>152</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>157</v>
-      </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G57" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G59" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
-      </c>
-      <c r="H60" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>205</v>
+      </c>
+      <c r="H61" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>306</v>
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2716,52 +2725,55 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="B68" t="s">
-        <v>308</v>
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" t="s">
-        <v>250</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
+        <v>307</v>
+      </c>
+      <c r="H69" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2769,13 +2781,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2783,219 +2795,233 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>260</v>
-      </c>
-      <c r="G73" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="H75" t="s">
-        <v>314</v>
+      <c r="F75" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="F76" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" t="s">
-        <v>274</v>
+      <c r="H76" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G78" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G79" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G81" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G82" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>298</v>
+      </c>
+      <c r="G83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" t="s">
         <v>301</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C84" t="s">
         <v>302</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
         <v>303</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G84" t="s">
         <v>304</v>
-      </c>
-      <c r="G83" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
